--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_21-28.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_21-28.xlsx
@@ -30,6 +30,486 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ADAPALENE 0.1% GEL 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>ALFEDING SPRAY</t>
+  </si>
+  <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALPHAVIM 300 - 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>CLARY HAIR MASK</t>
+  </si>
+  <si>
+    <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
+  </si>
+  <si>
+    <t>CLINDAVAL 2% VAGINAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>CRESTOLIP 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALINE  DROPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>ECONET CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL CARE  GEL</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FOURVENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
+  </si>
+  <si>
+    <t>LILIOX 10 SACHET</t>
+  </si>
+  <si>
+    <t>LIXORA EMOLLIENT GEL150ML</t>
+  </si>
+  <si>
+    <t>MANOVIPERCAINE PLUS TOPICAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>NERHASILDA 75 MG 8 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PEDICORT 5MG/5ML SYP. 100 ML</t>
+  </si>
+  <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>PROCYKINOL 5MG 50 TAB SACHET</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>SKINATRA TOP. OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>TORMEEL 5 MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7791:0</t>
+  </si>
+  <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن ماكسويل 63ق</t>
+  </si>
+  <si>
+    <t>0:27</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش اسنان فوكس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>كريم براشوت</t>
+  </si>
+  <si>
+    <t>ماء اكسجين 20</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>معجون سيجنال عرض 50ملل</t>
+  </si>
+  <si>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>Wednesday, 7 January, 2026 9:28 PM</t>
@@ -234,10 +714,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -611,52 +1091,3234 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>1</v>
+      </c>
+      <c t="s" r="B4" s="7">
+        <v>7</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c t="s" r="H4" s="8">
+        <v>8</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>34</v>
+      </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="7"/>
+      <c t="s" r="N4" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c t="s" r="A6" s="11">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c t="s" r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c t="s" r="H5" s="8">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9">
+        <v>12</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c t="s" r="N5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c t="s" r="B6" s="7">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c t="s" r="H6" s="8">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9">
+        <v>298</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c t="s" r="N6" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c t="s" r="B7" s="7">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c t="s" r="H7" s="8">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9">
+        <v>58</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c t="s" r="N7" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>80</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c t="s" r="N8" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c t="s" r="N9" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c t="s" r="F6" s="12">
+      <c t="s" r="B10" s="7">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c t="s" r="I6" s="14">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>84</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c t="s" r="N10" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="B11" s="7">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c t="s" r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>24</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c t="s" r="N11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c t="s" r="B12" s="7">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c t="s" r="H12" s="8">
+        <v>8</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
+        <v>114.66</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c t="s" r="N12" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c t="s" r="B13" s="7">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c t="s" r="H13" s="8">
+        <v>8</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9">
+        <v>231</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c t="s" r="N13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c t="s" r="B14" s="7">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c t="s" r="H14" s="8">
+        <v>8</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c t="s" r="N14" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>16</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c t="s" r="N15" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>28</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>-33</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c t="s" r="N16" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17" s="7">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c t="s" r="H17" s="8">
+        <v>18</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>78</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c t="s" r="N17" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>31</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>31</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c t="s" r="N18" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
+        <v>8</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>360</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
+        <v>9</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>34</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>32</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c t="s" r="N21" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>9</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c t="s" r="N22" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
+        <v>37</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>69</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c t="s" r="N23" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c t="s" r="B24" s="7">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c t="s" r="H24" s="8">
+        <v>39</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9">
+        <v>33</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c t="s" r="N24" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c t="s" r="B25" s="7">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c t="s" r="H25" s="8">
+        <v>8</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9">
+        <v>132</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c t="s" r="N25" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="24.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c t="s" r="B26" s="7">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c t="s" r="H26" s="8">
+        <v>9</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9">
+        <v>36</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c t="s" r="N26" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c t="s" r="B27" s="7">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c t="s" r="H27" s="8">
+        <v>8</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9">
+        <v>76</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c t="s" r="N27" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c t="s" r="B28" s="7">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c t="s" r="H28" s="8">
+        <v>44</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9">
+        <v>82.5</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c t="s" r="N28" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
+        <v>46</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>21</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c t="s" r="N29" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c t="s" r="B30" s="7">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c t="s" r="H30" s="8">
+        <v>48</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9">
+        <v>24</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c t="s" r="N30" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c t="s" r="B31" s="7">
+        <v>49</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c t="s" r="H31" s="8">
+        <v>16</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9">
+        <v>12</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c t="s" r="N31" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c t="s" r="B32" s="7">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c t="s" r="H32" s="8">
+        <v>16</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9">
+        <v>12</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c t="s" r="N32" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" customHeight="1">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c t="s" r="B33" s="7">
+        <v>51</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c t="s" r="H33" s="8">
+        <v>52</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9">
+        <v>30</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c t="s" r="N33" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
+        <v>53</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
+        <v>54</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>45</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c t="s" r="N34" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
+        <v>55</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>56</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>32</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
+        <v>57</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
+        <v>8</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>87</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
+        <v>58</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
+        <v>9</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>78</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c t="s" r="N37" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
+        <v>59</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
+        <v>8</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>169</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c t="s" r="N38" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>60</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>52</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>26</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c t="s" r="N39" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
+        <v>61</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>62</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>26</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c t="s" r="N40" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="24.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>38</v>
+      </c>
+      <c t="s" r="B41" s="7">
+        <v>63</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c t="s" r="H41" s="8">
+        <v>9</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9">
+        <v>130</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c t="s" r="N41" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>39</v>
+      </c>
+      <c t="s" r="B42" s="7">
+        <v>64</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c t="s" r="H42" s="8">
+        <v>52</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9">
+        <v>76</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c t="s" r="N42" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" customHeight="1">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>65</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
+        <v>26</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>26</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
+        <v>66</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
+        <v>9</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>34</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c t="s" r="N44" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>67</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>16</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>175.22999999999999</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c t="s" r="N45" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
+        <v>68</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>46</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>16</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
+        <v>69</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>70</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>24</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>71</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
+        <v>72</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>12</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="24.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c t="s" r="B49" s="7">
+        <v>73</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c t="s" r="H49" s="8">
+        <v>9</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9">
+        <v>71.5</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c t="s" r="N49" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c t="s" r="B50" s="7">
+        <v>74</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c t="s" r="H50" s="8">
+        <v>46</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9">
+        <v>67</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c t="s" r="N50" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c t="s" r="B51" s="7">
+        <v>75</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c t="s" r="H51" s="8">
+        <v>16</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9">
+        <v>78</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c t="s" r="N51" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c t="s" r="B52" s="7">
+        <v>76</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c t="s" r="H52" s="8">
+        <v>28</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9">
+        <v>114</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c t="s" r="N52" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" ht="25.5" customHeight="1">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c t="s" r="B53" s="7">
+        <v>77</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c t="s" r="H53" s="8">
+        <v>28</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9">
+        <v>65</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c t="s" r="N53" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" ht="24.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c t="s" r="B54" s="7">
+        <v>78</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c t="s" r="H54" s="8">
+        <v>14</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
+        <v>15</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c t="s" r="N54" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c t="s" r="B55" s="7">
+        <v>79</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c t="s" r="H55" s="8">
+        <v>9</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9">
+        <v>19</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c t="s" r="N55" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="24.75" customHeight="1">
+      <c r="A56" s="6">
+        <v>53</v>
+      </c>
+      <c t="s" r="B56" s="7">
+        <v>80</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c t="s" r="H56" s="8">
+        <v>52</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9">
+        <v>18</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c t="s" r="N56" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c t="s" r="B57" s="7">
+        <v>81</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c t="s" r="H57" s="8">
+        <v>8</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9">
+        <v>92</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c t="s" r="N57" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c t="s" r="B58" s="7">
+        <v>82</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c t="s" r="H58" s="8">
+        <v>14</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9">
+        <v>39</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c t="s" r="N58" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="24.75" customHeight="1">
+      <c r="A59" s="6">
+        <v>56</v>
+      </c>
+      <c t="s" r="B59" s="7">
+        <v>83</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c t="s" r="H59" s="8">
+        <v>52</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9">
+        <v>39</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c t="s" r="N59" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" ht="25.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>57</v>
+      </c>
+      <c t="s" r="B60" s="7">
+        <v>84</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c t="s" r="H60" s="8">
+        <v>9</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9">
+        <v>38</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c t="s" r="N60" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" ht="24.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>58</v>
+      </c>
+      <c t="s" r="B61" s="7">
+        <v>85</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c t="s" r="H61" s="8">
+        <v>8</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9">
+        <v>100</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c t="s" r="N61" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c t="s" r="B62" s="7">
+        <v>86</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c t="s" r="H62" s="8">
+        <v>8</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9">
+        <v>350</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c t="s" r="N62" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="A63" s="6">
+        <v>60</v>
+      </c>
+      <c t="s" r="B63" s="7">
+        <v>87</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c t="s" r="H63" s="8">
+        <v>8</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9">
+        <v>36.5</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c t="s" r="N63" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" ht="24.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>61</v>
+      </c>
+      <c t="s" r="B64" s="7">
+        <v>88</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c t="s" r="H64" s="8">
+        <v>26</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9">
+        <v>57</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c t="s" r="N64" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
+        <v>89</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>28</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>35</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
+        <v>90</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
+        <v>8</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>46</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>91</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>37</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>50</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
+        <v>92</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>28</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>24</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
+        <v>93</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>9</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>31</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
+        <v>94</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
+        <v>8</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>32</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c t="s" r="N70" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
+        <v>95</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
+        <v>96</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>11</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c t="s" r="N71" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
+        <v>97</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
+        <v>14</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>19</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c t="s" r="N72" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
+        <v>98</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
+        <v>99</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>-135</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c t="s" r="N73" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
+        <v>100</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>101</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>16</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
+        <v>102</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
+        <v>46</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>31</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c t="s" r="N75" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>73</v>
+      </c>
+      <c t="s" r="B76" s="7">
+        <v>103</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c t="s" r="H76" s="8">
+        <v>54</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9">
+        <v>8</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c t="s" r="N76" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>74</v>
+      </c>
+      <c t="s" r="B77" s="7">
+        <v>104</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c t="s" r="H77" s="8">
+        <v>26</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="9">
+        <v>24</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c t="s" r="N77" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
+        <v>105</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>52</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>31</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
+        <v>106</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>96</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>23</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
+        <v>107</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>8</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" ht="24.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>78</v>
+      </c>
+      <c t="s" r="B81" s="7">
+        <v>108</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c t="s" r="H81" s="8">
+        <v>14</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9">
+        <v>51</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c t="s" r="N81" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c t="s" r="B82" s="7">
+        <v>109</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c t="s" r="H82" s="8">
+        <v>54</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c t="s" r="N82" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="A83" s="6">
+        <v>80</v>
+      </c>
+      <c t="s" r="B83" s="7">
+        <v>110</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c t="s" r="H83" s="8">
+        <v>9</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9">
+        <v>52</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c t="s" r="N83" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" ht="24.75" customHeight="1">
+      <c r="A84" s="6">
+        <v>81</v>
+      </c>
+      <c t="s" r="B84" s="7">
+        <v>111</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c t="s" r="H84" s="8">
+        <v>8</v>
+      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9">
+        <v>58</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c t="s" r="N84" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" ht="25.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c t="s" r="B85" s="7">
+        <v>112</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c t="s" r="H85" s="8">
+        <v>113</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9">
+        <v>28.199999999999999</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c t="s" r="N85" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
+        <v>114</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
+        <v>37</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>23</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c t="s" r="N86" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
+        <v>115</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
+        <v>52</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>24</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c t="s" r="N87" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c t="s" r="B88" s="7">
+        <v>116</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c t="s" r="H88" s="8">
+        <v>9</v>
+      </c>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9">
+        <v>59</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c t="s" r="N88" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c t="s" r="B89" s="7">
+        <v>117</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c t="s" r="H89" s="8">
+        <v>9</v>
+      </c>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9">
+        <v>53</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c t="s" r="N89" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="25.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>87</v>
+      </c>
+      <c t="s" r="B90" s="7">
+        <v>118</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c t="s" r="H90" s="8">
+        <v>18</v>
+      </c>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9">
+        <v>58</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c t="s" r="N90" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c t="s" r="B91" s="7">
+        <v>119</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c t="s" r="H91" s="8">
+        <v>9</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9">
+        <v>22</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c t="s" r="N91" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c t="s" r="B92" s="7">
+        <v>120</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c t="s" r="H92" s="8">
+        <v>8</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9">
+        <v>96</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c t="s" r="N92" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
+        <v>121</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
+        <v>8</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>62</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c t="s" r="N93" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" ht="24.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c t="s" r="B94" s="7">
+        <v>122</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c t="s" r="H94" s="8">
+        <v>18</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9">
+        <v>60</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c t="s" r="N94" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" ht="25.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>92</v>
+      </c>
+      <c t="s" r="B95" s="7">
+        <v>123</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c t="s" r="H95" s="8">
+        <v>8</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9">
+        <v>48</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c t="s" r="N95" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
+        <v>124</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
+        <v>28</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>30</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c t="s" r="N96" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
+        <v>125</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>14</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>65</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
+        <v>126</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>127</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>26</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
+        <v>128</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>96</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>34</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>129</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>130</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>5</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
+        <v>131</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>18</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>49</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
+        <v>132</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>8</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>50</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c t="s" r="N102" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
+        <v>133</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
+        <v>26</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>96</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c t="s" r="N103" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
+        <v>134</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
+        <v>135</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>25</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c t="s" r="N104" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
+        <v>136</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>137</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>10</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c t="s" r="N105" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" ht="24.75" customHeight="1">
+      <c r="A106" s="6">
+        <v>103</v>
+      </c>
+      <c t="s" r="B106" s="7">
+        <v>138</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c t="s" r="H106" s="8">
+        <v>139</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="9">
+        <v>25</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c t="s" r="N106" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
+        <v>140</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
+        <v>26</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>15</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
+        <v>141</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
+        <v>142</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>20</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c t="s" r="N108" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" ht="24.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>106</v>
+      </c>
+      <c t="s" r="B109" s="7">
+        <v>143</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c t="s" r="H109" s="8">
+        <v>144</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9">
+        <v>11.67</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c t="s" r="N109" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>107</v>
+      </c>
+      <c t="s" r="B110" s="7">
+        <v>145</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c t="s" r="H110" s="8">
+        <v>46</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9">
+        <v>45</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c t="s" r="N110" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" ht="24.75" customHeight="1">
+      <c r="A111" s="6">
+        <v>108</v>
+      </c>
+      <c t="s" r="B111" s="7">
+        <v>146</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c t="s" r="H111" s="8">
+        <v>147</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9">
+        <v>28</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c t="s" r="N111" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="6">
+        <v>109</v>
+      </c>
+      <c t="s" r="B112" s="7">
+        <v>148</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c t="s" r="H112" s="8">
+        <v>149</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="9">
+        <v>24</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c t="s" r="N112" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" ht="25.5" customHeight="1">
+      <c r="A113" s="6">
+        <v>110</v>
+      </c>
+      <c t="s" r="B113" s="7">
+        <v>151</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c t="s" r="H113" s="8">
+        <v>152</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9">
+        <v>4</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c t="s" r="N113" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" ht="24.75" customHeight="1">
+      <c r="A114" s="6">
+        <v>111</v>
+      </c>
+      <c t="s" r="B114" s="7">
+        <v>153</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c t="s" r="H114" s="8">
+        <v>39</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9">
+        <v>20</v>
+      </c>
+      <c r="M114" s="9"/>
+      <c t="s" r="N114" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" ht="25.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>112</v>
+      </c>
+      <c t="s" r="B115" s="7">
+        <v>154</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c t="s" r="H115" s="8">
+        <v>142</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="9">
+        <v>133.65000000000001</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c t="s" r="N115" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" ht="24.75" customHeight="1">
+      <c r="A116" s="6">
+        <v>113</v>
+      </c>
+      <c t="s" r="B116" s="7">
+        <v>155</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c t="s" r="H116" s="8">
+        <v>8</v>
+      </c>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="9">
+        <v>30</v>
+      </c>
+      <c r="M116" s="9"/>
+      <c t="s" r="N116" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="6">
+        <v>114</v>
+      </c>
+      <c t="s" r="B117" s="7">
+        <v>156</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c t="s" r="H117" s="8">
+        <v>9</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="9">
+        <v>60</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c t="s" r="N117" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" customHeight="1">
+      <c r="A118" s="6">
+        <v>115</v>
+      </c>
+      <c t="s" r="B118" s="7">
+        <v>157</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c t="s" r="H118" s="8">
+        <v>152</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
+        <v>15</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c t="s" r="N118" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" ht="24.75" customHeight="1">
+      <c r="A119" s="6">
+        <v>116</v>
+      </c>
+      <c t="s" r="B119" s="7">
+        <v>158</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c t="s" r="H119" s="8">
+        <v>39</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="9">
+        <v>50</v>
+      </c>
+      <c r="M119" s="9"/>
+      <c t="s" r="N119" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
+        <v>159</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
+        <v>8</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>45</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c t="s" r="N120" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" ht="24.75" customHeight="1">
+      <c r="A121" s="6">
+        <v>118</v>
+      </c>
+      <c t="s" r="B121" s="7">
+        <v>160</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c t="s" r="H121" s="8">
+        <v>8</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="9">
+        <v>10</v>
+      </c>
+      <c r="M121" s="9"/>
+      <c t="s" r="N121" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="6">
+        <v>119</v>
+      </c>
+      <c t="s" r="B122" s="7">
+        <v>161</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c t="s" r="H122" s="8">
+        <v>152</v>
+      </c>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="9">
+        <v>20</v>
+      </c>
+      <c r="M122" s="9"/>
+      <c t="s" r="N122" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" customHeight="1">
+      <c r="A123" s="6">
+        <v>120</v>
+      </c>
+      <c t="s" r="B123" s="7">
+        <v>162</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c t="s" r="H123" s="8">
+        <v>26</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="9">
+        <v>60</v>
+      </c>
+      <c r="M123" s="9"/>
+      <c t="s" r="N123" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" ht="24.75" customHeight="1">
+      <c r="A124" s="6">
+        <v>121</v>
+      </c>
+      <c t="s" r="B124" s="7">
+        <v>163</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c t="s" r="H124" s="8">
+        <v>26</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="9">
+        <v>40</v>
+      </c>
+      <c r="M124" s="9"/>
+      <c t="s" r="N124" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" ht="25.5" customHeight="1">
+      <c r="A125" s="6">
+        <v>122</v>
+      </c>
+      <c t="s" r="B125" s="7">
+        <v>164</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c t="s" r="H125" s="8">
+        <v>52</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9">
+        <v>80</v>
+      </c>
+      <c r="M125" s="9"/>
+      <c t="s" r="N125" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" ht="24.75" customHeight="1">
+      <c r="A126" s="6">
+        <v>123</v>
+      </c>
+      <c t="s" r="B126" s="7">
+        <v>165</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c t="s" r="H126" s="8">
+        <v>166</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="9">
+        <v>20</v>
+      </c>
+      <c r="M126" s="9"/>
+      <c t="s" r="N126" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" ht="26.25" customHeight="1">
+      <c r="K127" s="10">
+        <v>6389.3100000000004</v>
+      </c>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="11">
+        <v>167</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c t="s" r="F128" s="12">
+        <v>168</v>
+      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="13"/>
+      <c t="s" r="I128" s="14">
+        <v>169</v>
+      </c>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="380">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -667,10 +4329,376 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="K127:N127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="I128:N128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
